--- a/data/trans_dic/P02E$contratada-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P02E$contratada-Estudios-trans_dic.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.007216166722650349</v>
+        <v>0.007197186192430356</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.005488958594072882</v>
+        <v>0.005945030477462244</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.004246409155465751</v>
+        <v>0.006384268733942982</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.01031500774679379</v>
+        <v>0.01043168920225533</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.01113653699572234</v>
+        <v>0.01120527902695561</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.006386216997495583</v>
+        <v>0.006430727744421999</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.0137308686111475</v>
+        <v>0.01162449701495551</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.01241558090231375</v>
+        <v>0.01214835472270719</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.009928689982508196</v>
+        <v>0.01032440773738241</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.0701290238628572</v>
+        <v>0.06363262211971858</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.05062304151019195</v>
+        <v>0.05708799299153231</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.05763566879767517</v>
+        <v>0.06829888806748934</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.05674724638646782</v>
+        <v>0.06205659745828462</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.04463710781787003</v>
+        <v>0.04715123568249345</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.05635015733222849</v>
+        <v>0.06064671150976174</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.05100718745542094</v>
+        <v>0.0497794165919584</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.03979231475197608</v>
+        <v>0.03883334998119667</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.04447418541652429</v>
+        <v>0.04636179882363883</v>
       </c>
     </row>
     <row r="7">
@@ -784,31 +784,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.002345516210517584</v>
+        <v>0.002333718557022135</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.001502511925095432</v>
+        <v>0.001496205638246093</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.01295638407972927</v>
+        <v>0.01323303659911228</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.004123551194683041</v>
+        <v>0.004060044979585365</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.004685515658228948</v>
+        <v>0.005426272221416632</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.004300765749556029</v>
+        <v>0.004327317721424934</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.004942924376613463</v>
+        <v>0.00506137981111243</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.004540521293936785</v>
+        <v>0.004641844760370785</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.009678998324902746</v>
+        <v>0.009905574429015929</v>
       </c>
     </row>
     <row r="9">
@@ -819,31 +819,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.03288295417756384</v>
+        <v>0.03444381052729428</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.01331686570848875</v>
+        <v>0.01307524634943021</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.04329832726993777</v>
+        <v>0.04418696792262531</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.0234349721121443</v>
+        <v>0.02416956058515776</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.0197098213390895</v>
+        <v>0.02054369717448888</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.0206804313322045</v>
+        <v>0.02023800624254969</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.0208424063956222</v>
+        <v>0.02179287354633281</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.01415861198934067</v>
+        <v>0.01496792980022615</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.02527629737155592</v>
+        <v>0.02535632240610013</v>
       </c>
     </row>
     <row r="10">
@@ -893,31 +893,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.006937609346109225</v>
+        <v>0.007030457814714361</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.02672132998870901</v>
+        <v>0.02699890726185899</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.006931899292106835</v>
+        <v>0.00687032824697177</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.006155956397306225</v>
+        <v>0.006297165774780756</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.01798197530167707</v>
+        <v>0.01843036248298985</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.02614634020945672</v>
+        <v>0.0236078421625359</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.01244047728977885</v>
+        <v>0.01265071026661075</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.02890670344251558</v>
+        <v>0.02665323609170103</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.0220371546093097</v>
+        <v>0.02118815679909187</v>
       </c>
     </row>
     <row r="12">
@@ -928,31 +928,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.06578106157031632</v>
+        <v>0.07280345481275449</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1115634539176214</v>
+        <v>0.1099067557667828</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.05992719163181426</v>
+        <v>0.0599333291700053</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.05842905766052173</v>
+        <v>0.06372800648928938</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.08274678282351738</v>
+        <v>0.0805813989204355</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.08646024009005028</v>
+        <v>0.08764271688451387</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.04982088277236619</v>
+        <v>0.04850644020771343</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.07903140945452557</v>
+        <v>0.07926571095849475</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.06388425476867934</v>
+        <v>0.06322177301036008</v>
       </c>
     </row>
     <row r="13">
@@ -1002,31 +1002,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.008495247021382969</v>
+        <v>0.008612073867771745</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.00962786974783097</v>
+        <v>0.009782637563137441</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.01369624060753602</v>
+        <v>0.01366937531907913</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.01014406286268207</v>
+        <v>0.01022745839017606</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.01273817289822906</v>
+        <v>0.0124087449516218</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.01282536799636927</v>
+        <v>0.01259251139618463</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.011598361441671</v>
+        <v>0.01173832180378101</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.0128503073553225</v>
+        <v>0.0129221641191744</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.01545126438456704</v>
+        <v>0.0156605701797663</v>
       </c>
     </row>
     <row r="15">
@@ -1037,31 +1037,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.03340353868922658</v>
+        <v>0.03270489087822527</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.02849393682769996</v>
+        <v>0.02793900157049446</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.03667556705030262</v>
+        <v>0.03652750593445751</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.02867513657975724</v>
+        <v>0.02878387025312814</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.02918461469402468</v>
+        <v>0.02672692800416068</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.03046767439188252</v>
+        <v>0.030463124483644</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.02620553226928697</v>
+        <v>0.0263228969908688</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.02434221155927378</v>
+        <v>0.02513468358174062</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.02919037281675346</v>
+        <v>0.02876744588981549</v>
       </c>
     </row>
     <row r="16">
@@ -1289,31 +1289,31 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>994</v>
+        <v>1076</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>542</v>
+        <v>814</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>2797</v>
+        <v>2828</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>4323</v>
+        <v>4350</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>1264</v>
+        <v>1273</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>5278</v>
+        <v>4469</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>7068</v>
+        <v>6915</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>3232</v>
+        <v>3360</v>
       </c>
     </row>
     <row r="7">
@@ -1324,31 +1324,31 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>7944</v>
+        <v>7208</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>9166</v>
+        <v>10336</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>7352</v>
+        <v>8712</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>15386</v>
+        <v>16825</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>17328</v>
+        <v>18304</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>11154</v>
+        <v>12004</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>19608</v>
+        <v>19136</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>22652</v>
+        <v>22106</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>14476</v>
+        <v>15090</v>
       </c>
     </row>
     <row r="8">
@@ -1433,31 +1433,31 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>907</v>
+        <v>902</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>939</v>
+        <v>935</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>6220</v>
+        <v>6353</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>2344</v>
+        <v>2308</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>4240</v>
+        <v>4910</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>3000</v>
+        <v>3018</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>4721</v>
+        <v>4834</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>6946</v>
+        <v>7101</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>11397</v>
+        <v>11664</v>
       </c>
     </row>
     <row r="11">
@@ -1468,31 +1468,31 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>12715</v>
+        <v>13319</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>8323</v>
+        <v>8172</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>20788</v>
+        <v>21214</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>13319</v>
+        <v>13737</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>17834</v>
+        <v>18589</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>14423</v>
+        <v>14115</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>19905</v>
+        <v>20813</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>21661</v>
+        <v>22899</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>29764</v>
+        <v>29858</v>
       </c>
     </row>
     <row r="12">
@@ -1577,31 +1577,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>876</v>
+        <v>887</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>4731</v>
+        <v>4780</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>1002</v>
+        <v>993</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>1024</v>
+        <v>1047</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>4025</v>
+        <v>4126</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>5584</v>
+        <v>5042</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>3640</v>
+        <v>3701</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>11589</v>
+        <v>10685</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>7891</v>
+        <v>7587</v>
       </c>
     </row>
     <row r="15">
@@ -1612,31 +1612,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>8304</v>
+        <v>9190</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>19751</v>
+        <v>19457</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>8660</v>
+        <v>8661</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>9719</v>
+        <v>10600</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>18524</v>
+        <v>18039</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>18465</v>
+        <v>18718</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>14576</v>
+        <v>14192</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>31683</v>
+        <v>31777</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>22876</v>
+        <v>22639</v>
       </c>
     </row>
     <row r="16">
@@ -1721,31 +1721,31 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>5320</v>
+        <v>5393</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>9465</v>
+        <v>9617</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>10302</v>
+        <v>10282</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>10203</v>
+        <v>10287</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>19322</v>
+        <v>18823</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>14223</v>
+        <v>13964</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>18929</v>
+        <v>19157</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>32126</v>
+        <v>32306</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>28757</v>
+        <v>29146</v>
       </c>
     </row>
     <row r="19">
@@ -1756,31 +1756,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>20917</v>
+        <v>20480</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>28013</v>
+        <v>27467</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>27586</v>
+        <v>27475</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>28842</v>
+        <v>28951</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>44270</v>
+        <v>40542</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>33787</v>
+        <v>33782</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>42768</v>
+        <v>42959</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>60856</v>
+        <v>62837</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>54327</v>
+        <v>53539</v>
       </c>
     </row>
     <row r="20">
